--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BBB448-7491-894A-9462-9686645568F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B803DED8-EB51-9F4C-8D55-25E7DC1DAE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -146,18 +145,6 @@
   </si>
   <si>
     <t>id_sector</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>no mark-up on top of wholesale price, tax, CO2 emission</t>
-  </si>
-  <si>
-    <t>with EEG Levy until 2022 for electricity price (PS XI baseline)</t>
-  </si>
-  <si>
-    <t>with EEG Levy until 2050 for electricity price (PS XI - without EEG levy reduction)</t>
   </si>
 </sst>
 </file>
@@ -314,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK25" totalsRowShown="0">
-  <autoFilter ref="A1:AK25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK17" totalsRowShown="0">
+  <autoFilter ref="A1:AK17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
@@ -622,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1656,13 +1643,13 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1671,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3.7199999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>3.7199999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>3.7199999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>3.7199999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1769,13 +1756,13 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1882,13 +1869,13 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1995,13 +1982,13 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -2108,13 +2095,13 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -2221,13 +2208,13 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -2334,13 +2321,13 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -2447,13 +2434,13 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>25</v>
@@ -2555,910 +2542,6 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="M18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="P18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="R18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="T18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="U18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="V18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="W18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="X18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3468,54 +2551,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B803DED8-EB51-9F4C-8D55-25E7DC1DAE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA812B35-D1BA-004B-A209-49763E0A5A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8220" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -301,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK17" totalsRowShown="0">
-  <autoFilter ref="A1:AK17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK25" totalsRowShown="0">
+  <autoFilter ref="A1:AK25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -2443,105 +2443,1009 @@
         <v>6</v>
       </c>
       <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1">
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
         <v>0</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA812B35-D1BA-004B-A209-49763E0A5A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF8EDA9-F5C0-A74D-A335-011292ACAC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8220" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-960" yWindow="-20220" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -145,6 +146,36 @@
   </si>
   <si>
     <t>id_sector</t>
+  </si>
+  <si>
+    <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
@@ -154,10 +185,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,14 +338,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AK25" totalsRowShown="0">
-  <autoFilter ref="A1:AK25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT25" totalsRowShown="0">
+  <autoFilter ref="A1:AT25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
+    <tableColumn id="40" xr3:uid="{5A259EF6-EFC7-AF47-A817-EBF89983F4FF}" name="2010"/>
+    <tableColumn id="41" xr3:uid="{2F1B74DF-194A-7C4B-8075-FB97ED14085F}" name="2011"/>
+    <tableColumn id="42" xr3:uid="{12FADAC8-A570-3A4A-A980-E9CA70E75444}" name="2012"/>
+    <tableColumn id="43" xr3:uid="{DD76AF02-8F31-494B-A06E-FFA71EB64DE1}" name="2013"/>
+    <tableColumn id="44" xr3:uid="{1B09AE6F-1AB9-5443-8A15-399F2A544996}" name="2014"/>
+    <tableColumn id="45" xr3:uid="{B2CA028C-EA02-C34F-8B32-ED11DE1159DE}" name="2015"/>
+    <tableColumn id="46" xr3:uid="{279EC927-AC6F-4448-8AA4-BFE44A2299F9}" name="2016"/>
+    <tableColumn id="47" xr3:uid="{6069D95F-5B77-FC4F-BBD3-F8342C38999E}" name="2017"/>
+    <tableColumn id="48" xr3:uid="{07A26060-5D13-AC4D-BDAD-5D5E6EA69DF3}" name="2018"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
@@ -609,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,9 +668,10 @@
     <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -641,103 +688,130 @@
         <v>34</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,8 +923,35 @@
       <c r="AK2" s="1">
         <v>0</v>
       </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -962,8 +1063,35 @@
       <c r="AK3" s="1">
         <v>0</v>
       </c>
+      <c r="AL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1075,8 +1203,35 @@
       <c r="AK4" s="1">
         <v>0</v>
       </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1188,8 +1343,35 @@
       <c r="AK5" s="1">
         <v>0</v>
       </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1301,8 +1483,35 @@
       <c r="AK6" s="1">
         <v>0</v>
       </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1414,8 +1623,35 @@
       <c r="AK7" s="1">
         <v>0</v>
       </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1527,8 +1763,35 @@
       <c r="AK8" s="1">
         <v>0</v>
       </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1640,8 +1903,35 @@
       <c r="AK9" s="1">
         <v>0</v>
       </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1753,8 +2043,35 @@
       <c r="AK10" s="1">
         <v>0</v>
       </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1866,8 +2183,35 @@
       <c r="AK11" s="1">
         <v>0</v>
       </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1979,8 +2323,35 @@
       <c r="AK12" s="1">
         <v>0</v>
       </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2092,8 +2463,35 @@
       <c r="AK13" s="1">
         <v>0</v>
       </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2205,8 +2603,35 @@
       <c r="AK14" s="1">
         <v>0</v>
       </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2318,8 +2743,35 @@
       <c r="AK15" s="1">
         <v>0</v>
       </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2431,8 +2883,35 @@
       <c r="AK16" s="1">
         <v>0</v>
       </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2544,8 +3023,35 @@
       <c r="AK17" s="1">
         <v>0</v>
       </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2657,8 +3163,35 @@
       <c r="AK18" s="1">
         <v>0</v>
       </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2770,8 +3303,35 @@
       <c r="AK19" s="1">
         <v>0</v>
       </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2883,8 +3443,35 @@
       <c r="AK20" s="1">
         <v>0</v>
       </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2996,8 +3583,35 @@
       <c r="AK21" s="1">
         <v>0</v>
       </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3109,8 +3723,35 @@
       <c r="AK22" s="1">
         <v>0</v>
       </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3222,8 +3863,35 @@
       <c r="AK23" s="1">
         <v>0</v>
       </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3335,8 +4003,35 @@
       <c r="AK24" s="1">
         <v>0</v>
       </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3448,11 +4143,57 @@
       <c r="AK25" s="1">
         <v>0</v>
       </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FABCDCF-667B-9243-ADF9-4D8A4917B735}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF8EDA9-F5C0-A74D-A335-011292ACAC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169227D-48E6-DB41-B0D2-BAF2EC3731C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-960" yWindow="-20220" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>euro/kWh</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>2051</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -338,9 +344,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT25" totalsRowShown="0">
-  <autoFilter ref="A1:AT25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AU25" totalsRowShown="0">
+  <autoFilter ref="A1:AU25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
@@ -355,38 +361,39 @@
     <tableColumn id="46" xr3:uid="{279EC927-AC6F-4448-8AA4-BFE44A2299F9}" name="2016"/>
     <tableColumn id="47" xr3:uid="{6069D95F-5B77-FC4F-BBD3-F8342C38999E}" name="2017"/>
     <tableColumn id="48" xr3:uid="{07A26060-5D13-AC4D-BDAD-5D5E6EA69DF3}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
+    <tableColumn id="38" xr3:uid="{60E71B52-D41B-5943-8E9D-156570FE78A9}" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +678,7 @@
     <col min="6" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -810,8 +817,11 @@
       <c r="AT1" t="s">
         <v>33</v>
       </c>
+      <c r="AU1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="AT2" s="1">
         <v>0</v>
       </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1090,8 +1103,11 @@
       <c r="AT3" s="1">
         <v>0</v>
       </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1230,8 +1246,11 @@
       <c r="AT4" s="1">
         <v>0</v>
       </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1370,8 +1389,11 @@
       <c r="AT5" s="1">
         <v>0</v>
       </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1510,8 +1532,11 @@
       <c r="AT6" s="1">
         <v>0</v>
       </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1650,8 +1675,11 @@
       <c r="AT7" s="1">
         <v>0</v>
       </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1790,8 +1818,11 @@
       <c r="AT8" s="1">
         <v>0</v>
       </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1930,8 +1961,11 @@
       <c r="AT9" s="1">
         <v>0</v>
       </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2070,8 +2104,11 @@
       <c r="AT10" s="1">
         <v>0</v>
       </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2210,8 +2247,11 @@
       <c r="AT11" s="1">
         <v>0</v>
       </c>
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2350,8 +2390,11 @@
       <c r="AT12" s="1">
         <v>0</v>
       </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2490,8 +2533,11 @@
       <c r="AT13" s="1">
         <v>0</v>
       </c>
+      <c r="AU13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2630,8 +2676,11 @@
       <c r="AT14" s="1">
         <v>0</v>
       </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2770,8 +2819,11 @@
       <c r="AT15" s="1">
         <v>0</v>
       </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2910,8 +2962,11 @@
       <c r="AT16" s="1">
         <v>0</v>
       </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3050,8 +3105,11 @@
       <c r="AT17" s="1">
         <v>0</v>
       </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3190,8 +3248,11 @@
       <c r="AT18" s="1">
         <v>0</v>
       </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3330,8 +3391,11 @@
       <c r="AT19" s="1">
         <v>0</v>
       </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3470,8 +3534,11 @@
       <c r="AT20" s="1">
         <v>0</v>
       </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3610,8 +3677,11 @@
       <c r="AT21" s="1">
         <v>0</v>
       </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3750,8 +3820,11 @@
       <c r="AT22" s="1">
         <v>0</v>
       </c>
+      <c r="AU22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3890,8 +3963,11 @@
       <c r="AT23" s="1">
         <v>0</v>
       </c>
+      <c r="AU23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4030,8 +4106,11 @@
       <c r="AT24" s="1">
         <v>0</v>
       </c>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4168,6 +4247,9 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
         <v>0</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_MarkUp.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169227D-48E6-DB41-B0D2-BAF2EC3731C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="-20220" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-960" yWindow="-20220" windowWidth="30240" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -344,56 +343,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AU25" totalsRowShown="0">
-  <autoFilter ref="A1:AU25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AU25" totalsRowShown="0">
+  <autoFilter ref="A1:AU25"/>
   <tableColumns count="47">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
-    <tableColumn id="40" xr3:uid="{5A259EF6-EFC7-AF47-A817-EBF89983F4FF}" name="2010"/>
-    <tableColumn id="41" xr3:uid="{2F1B74DF-194A-7C4B-8075-FB97ED14085F}" name="2011"/>
-    <tableColumn id="42" xr3:uid="{12FADAC8-A570-3A4A-A980-E9CA70E75444}" name="2012"/>
-    <tableColumn id="43" xr3:uid="{DD76AF02-8F31-494B-A06E-FFA71EB64DE1}" name="2013"/>
-    <tableColumn id="44" xr3:uid="{1B09AE6F-1AB9-5443-8A15-399F2A544996}" name="2014"/>
-    <tableColumn id="45" xr3:uid="{B2CA028C-EA02-C34F-8B32-ED11DE1159DE}" name="2015"/>
-    <tableColumn id="46" xr3:uid="{279EC927-AC6F-4448-8AA4-BFE44A2299F9}" name="2016"/>
-    <tableColumn id="47" xr3:uid="{6069D95F-5B77-FC4F-BBD3-F8342C38999E}" name="2017"/>
-    <tableColumn id="48" xr3:uid="{07A26060-5D13-AC4D-BDAD-5D5E6EA69DF3}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
-    <tableColumn id="38" xr3:uid="{60E71B52-D41B-5943-8E9D-156570FE78A9}" name="2051" dataDxfId="0"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="3" name="id_sector"/>
+    <tableColumn id="4" name="id_energy_carrier"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="40" name="2010"/>
+    <tableColumn id="41" name="2011"/>
+    <tableColumn id="42" name="2012"/>
+    <tableColumn id="43" name="2013"/>
+    <tableColumn id="44" name="2014"/>
+    <tableColumn id="45" name="2015"/>
+    <tableColumn id="46" name="2016"/>
+    <tableColumn id="47" name="2017"/>
+    <tableColumn id="48" name="2018"/>
+    <tableColumn id="6" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" name="2050" dataDxfId="1"/>
+    <tableColumn id="38" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -661,24 +660,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -821,7 +820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -838,133 +837,133 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>2.4699999999999993E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3.500000000000001E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>4.1349999999999998E-2</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>5.7849999999999999E-2</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>7.1849999999999997E-2</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>7.85E-2</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>8.7650000000000006E-2</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>0.10005000000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>5.510000000000001E-2</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>3.5299999999999984E-2</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AL2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AM2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AN2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AO2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AP2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AR2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AT2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AU2" s="1">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1267,133 +1266,133 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4.9499999999999995E-3</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>4.9499999999999995E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>4.0500000000000015E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>4.0500000000000015E-3</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>4.0500000000000015E-3</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>3.9999999999999966E-3</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>4.049999999999998E-3</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>4.049999999999998E-3</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>5.0499999999999955E-3</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>6.0000000000000019E-3</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1.0199999999999997E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1.575E-2</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>1.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2554,133 +2553,133 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>7.7849999999999989E-2</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>0.10645000000000002</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>0.10489999999999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>0.11134999999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>0.1137</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>0.11095000000000001</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>0.11370000000000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>0.11220000000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>4.9549999999999983E-2</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>5.5550000000000002E-2</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AD14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AF14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AG14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AH14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AM14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AN14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AO14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AR14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AT14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AU14" s="1">
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2983,133 +2982,133 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>5.9999999999999984E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>5.899999999999999E-3</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>5.899999999999999E-3</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>6.0000000000000019E-3</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>6.1000000000000013E-3</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>6.3E-3</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1.0800000000000004E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1.1799999999999998E-2</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Z17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AD17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AE17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AF17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AG17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AI17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AJ17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AM17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AO17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AP17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AR17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AT17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AU17" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4263,14 +4262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FABCDCF-667B-9243-ADF9-4D8A4917B735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
